--- a/output/sites/clustering with PCs/clust_PCs_validity_measures_CN.xlsx
+++ b/output/sites/clustering with PCs/clust_PCs_validity_measures_CN.xlsx
@@ -410,25 +410,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.669</v>
+        <v>1.293</v>
       </c>
       <c r="E2" t="n">
-        <v>1.068</v>
+        <v>1.55</v>
       </c>
       <c r="F2" t="n">
-        <v>0.93</v>
+        <v>1.679</v>
       </c>
       <c r="G2" t="n">
-        <v>0.357</v>
+        <v>0.489</v>
       </c>
       <c r="H2" t="n">
-        <v>2.417</v>
+        <v>3.752</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.696</v>
+        <v>0.711</v>
       </c>
       <c r="E3" t="n">
-        <v>1.106</v>
+        <v>1.374</v>
       </c>
       <c r="F3" t="n">
-        <v>1.063</v>
+        <v>1.442</v>
       </c>
       <c r="G3" t="n">
-        <v>0.39</v>
+        <v>0.331</v>
       </c>
       <c r="H3" t="n">
-        <v>2.723</v>
+        <v>3.329</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.669</v>
+        <v>0.711</v>
       </c>
       <c r="E4" t="n">
-        <v>0.84</v>
+        <v>1.106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.826</v>
+        <v>0.99</v>
       </c>
       <c r="G4" t="n">
-        <v>0.434</v>
+        <v>0.448</v>
       </c>
       <c r="H4" t="n">
-        <v>1.974</v>
+        <v>2.672</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -497,25 +497,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.124</v>
+        <v>1.417</v>
       </c>
       <c r="E5" t="n">
-        <v>1.1</v>
+        <v>1.199</v>
       </c>
       <c r="F5" t="n">
-        <v>1.042</v>
+        <v>1.211</v>
       </c>
       <c r="G5" t="n">
-        <v>0.498</v>
+        <v>0.529</v>
       </c>
       <c r="H5" t="n">
-        <v>3.075</v>
+        <v>3.66</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
